--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B05C18-C662-4487-969E-3A9B71A220EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC075CBA-2112-4AA9-86CF-0F06B0731C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="10395" windowWidth="25575" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -406,6 +406,62 @@
   </si>
   <si>
     <t>effect_102</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速接上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱意，增长生命力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不安全感</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心的依赖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被迫的依赖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_106</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱的滋养</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_107</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的爱意</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_109</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃离，巨大的分支</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -618,6 +674,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -898,13 +956,15 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="5" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="12" width="12.625" customWidth="1"/>
   </cols>
@@ -1135,60 +1195,132 @@
       <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>4</v>
+      <c r="F7" s="5"/>
+      <c r="H7" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
+      <c r="G8">
+        <v>2</v>
+      </c>
       <c r="H8">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="5">
+        <v>15</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
       <c r="E12" s="5"/>
+      <c r="H12">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC075CBA-2112-4AA9-86CF-0F06B0731C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601424D-0803-4841-AB82-48B9CCC65DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="10395" windowWidth="25575" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -462,6 +462,10 @@
   </si>
   <si>
     <t>逃离，巨大的分支</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -661,7 +665,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,8 +677,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -956,7 +958,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,28 +1083,28 @@
         <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>66</v>
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -1201,7 +1203,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1221,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1235,17 +1237,17 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="I9">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="5">
@@ -1257,14 +1259,14 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="5">
@@ -1273,17 +1275,17 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="H11">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="5">
@@ -1291,35 +1293,35 @@
       </c>
       <c r="E12" s="5"/>
       <c r="H12">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="5">
         <v>100</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1403,10 +1405,10 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1471,10 +1473,10 @@
       <c r="M3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0601424D-0803-4841-AB82-48B9CCC65DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37414F6D-C3ED-495E-AB79-3239A19238EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -337,34 +337,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>减少生命值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>增加衰减值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>减少衰减值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>增加相遇可能性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>减少相遇可能性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>增加分支可能性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>减少分支可能性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>注释</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -373,31 +357,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>life_minus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cost_add</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cost_minus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>event_add</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>event_minus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>branch_add</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch_minus</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -955,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,12 +934,12 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="12" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,29 +950,21 @@
         <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1013,12 +973,8 @@
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +982,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1040,12 +996,8 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1005,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1067,12 +1019,8 @@
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1083,29 +1031,21 @@
         <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1114,12 +1054,8 @@
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1129,10 +1065,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -1141,12 +1077,8 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1154,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>70</v>
@@ -1162,24 +1094,16 @@
       <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -1188,162 +1112,147 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="21">
+      <c r="F7" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5">
         <v>40</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="5">
+        <v>-2</v>
+      </c>
+      <c r="F8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="I9">
-        <v>0.2</v>
-      </c>
-      <c r="J9">
+      <c r="F9">
+        <v>-0.2</v>
+      </c>
+      <c r="G9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <v>-1</v>
+      </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5">
         <v>15</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="H11">
+      <c r="F11">
         <v>0.2</v>
       </c>
-      <c r="J11">
+      <c r="G11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5">
         <v>50</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="H12">
+      <c r="F12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5">
         <v>100</v>
       </c>
-      <c r="H13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14">
+        <v>94</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="J14">
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37414F6D-C3ED-495E-AB79-3239A19238EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF521C6-F63E-4B49-AFF9-4965E8E009F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28095" yWindow="2115" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -434,6 +434,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加回来</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_1010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -645,7 +653,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -923,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,7 +943,8 @@
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="8" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,73 +1130,74 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="21">
+      <c r="F7">
         <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
+        <v>96</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="5">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-0.2</v>
+      </c>
       <c r="F9">
-        <v>-0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-1</v>
+        <v>84</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10">
+        <v>-0.2</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-0.2</v>
+      </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -1196,51 +1205,66 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12">
-        <v>0.6</v>
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-20</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
@@ -1253,6 +1277,12 @@
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF521C6-F63E-4B49-AFF9-4965E8E009F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72221CB7-1246-4320-8D52-014BE3446608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28095" yWindow="2115" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,7 +933,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,9 +1133,6 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>-0.3</v>
-      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -1257,13 +1254,16 @@
         <v>94</v>
       </c>
       <c r="D15" s="5">
-        <v>-20</v>
+        <v>-40</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72221CB7-1246-4320-8D52-014BE3446608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5D4EB1-772F-4452-B285-81A8B841B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28095" yWindow="2115" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="1410" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>##var</t>
   </si>
@@ -442,6 +442,14 @@
   </si>
   <si>
     <t>effect_1010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_901</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上分支</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +941,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1267,10 +1275,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
+      <c r="G16">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>

--- a/LubanConfig/Datas/effect.xlsx
+++ b/LubanConfig/Datas/effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5D4EB1-772F-4452-B285-81A8B841B42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9A8DA-552A-4810-A0D7-BB0F1EA21AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="1410" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3525" windowWidth="30975" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -450,6 +450,30 @@
   </si>
   <si>
     <t>马上分支</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_902</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上相遇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支，然后耗尽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_903</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_904</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相遇，然后耗尽</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -938,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1287,17 +1311,47 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
